--- a/run1/P01_no_af/T01_optuna/S02_combine_study.xlsx
+++ b/run1/P01_no_af/T01_optuna/S02_combine_study.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -542,36 +542,36 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'splitter': 'best', 'max_depth': 32, 'min_samples_split': 32, 'min_samples_leaf': 17, 'min_weight_fraction_leaf': 0.03177917514301182, 'max_features': 0.5, 'max_leaf_nodes': 100, 'min_impurity_decrease': 1.3731092468240299e-05, 'ccp_alpha': 1.3399717231179722e-07}</t>
+          <t>{'criterion': 'friedman_mse', 'splitter': 'best', 'max_depth': 4, 'min_samples_split': 37, 'min_samples_leaf': 24, 'min_weight_fraction_leaf': 0.010720679412577021, 'max_features': 0.5, 'max_leaf_nodes': 200, 'min_impurity_decrease': 0.008414542558934732, 'ccp_alpha': 0.0003661269102150824}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-0.08612338606224008</v>
+        <v>-0.09466889531047312</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8960663713096261</v>
+        <v>0.8890768399672704</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04783631779564641</v>
+        <v>0.06866531375491515</v>
       </c>
       <c r="L2" t="n">
-        <v>1.502360182029536</v>
+        <v>1.451819626819907</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3151039067059427</v>
+        <v>0.2716439261791272</v>
       </c>
       <c r="N2" t="n">
-        <v>0.08612338606224008</v>
+        <v>0.09466889531047312</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0220414596409395</v>
+        <v>0.04027391733218316</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'splitter': 'best', 'max_depth': 32, 'min_samples_split': 32, 'min_samples_leaf': 17, 'min_weight_fraction_leaf': 0.03177917514301182, 'max_features': 0.5, 'max_leaf_nodes': 100, 'min_impurity_decrease': 1.3731092468240299e-05, 'ccp_alpha': 1.3399717231179722e-07, 'random_state': 42}</t>
+          <t>{'criterion': 'friedman_mse', 'splitter': 'best', 'max_depth': 4, 'min_samples_split': 37, 'min_samples_leaf': 24, 'min_weight_fraction_leaf': 0.010720679412577021, 'max_features': 0.5, 'max_leaf_nodes': 200, 'min_impurity_decrease': 0.008414542558934732, 'ccp_alpha': 0.0003661269102150824, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -602,36 +602,36 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'splitter': 'best', 'max_depth': 32, 'min_samples_split': 32, 'min_samples_leaf': 17, 'min_weight_fraction_leaf': 0.03177917514301182, 'max_features': 0.5, 'max_leaf_nodes': 100, 'min_impurity_decrease': 1.3731092468240299e-05, 'ccp_alpha': 1.3399717231179722e-07}</t>
+          <t>{'criterion': 'squared_error', 'splitter': 'best', 'max_depth': 16, 'min_samples_split': 40, 'min_samples_leaf': 12, 'min_weight_fraction_leaf': 0.24594717540826824, 'max_features': 'sqrt', 'max_leaf_nodes': 100, 'min_impurity_decrease': 1.3069965996260994e-06, 'ccp_alpha': 0.0041463501760616505}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-0.05130680110705088</v>
+        <v>-0.09343670159492225</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9305734110728788</v>
+        <v>0.8930466011949434</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07142047623309343</v>
+        <v>0.07354632181646084</v>
       </c>
       <c r="L3" t="n">
-        <v>1.731293707048507</v>
+        <v>1.568710155808729</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2927164163369668</v>
+        <v>0.2624109313048519</v>
       </c>
       <c r="N3" t="n">
-        <v>0.05130680110705088</v>
+        <v>0.09343670159492225</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0324133034716558</v>
+        <v>0.0217226486133886</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'splitter': 'best', 'max_depth': 32, 'min_samples_split': 32, 'min_samples_leaf': 17, 'min_weight_fraction_leaf': 0.03177917514301182, 'max_features': 0.5, 'max_leaf_nodes': 100, 'min_impurity_decrease': 1.3731092468240299e-05, 'ccp_alpha': 1.3399717231179722e-07, 'random_state': 42}</t>
+          <t>{'criterion': 'squared_error', 'splitter': 'best', 'max_depth': 16, 'min_samples_split': 40, 'min_samples_leaf': 12, 'min_weight_fraction_leaf': 0.24594717540826824, 'max_features': 'sqrt', 'max_leaf_nodes': 100, 'min_impurity_decrease': 1.3069965996260994e-06, 'ccp_alpha': 0.0041463501760616505, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -662,36 +662,36 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'criterion': 'absolute_error', 'splitter': 'random', 'max_depth': 3, 'min_samples_split': 26, 'min_samples_leaf': 3, 'min_weight_fraction_leaf': 0.13932323211830572, 'max_features': 0.5, 'max_leaf_nodes': None, 'min_impurity_decrease': 4.773901130843782e-05, 'ccp_alpha': 2.827801042638613e-07}</t>
+          <t>{'criterion': 'squared_error', 'splitter': 'best', 'max_depth': 6, 'min_samples_split': 40, 'min_samples_leaf': 45, 'min_weight_fraction_leaf': 0.1689975784257679, 'max_features': 'log2', 'max_leaf_nodes': 100, 'min_impurity_decrease': 4.0852280036686224e-05, 'ccp_alpha': 0.0007078932406899764}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-0.04902536552398313</v>
+        <v>-0.08504988980059783</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9279858145848071</v>
+        <v>0.8970436734009903</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1265664353617381</v>
+        <v>0.142730500165849</v>
       </c>
       <c r="L4" t="n">
-        <v>1.724843220254564</v>
+        <v>1.501651732212438</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3398787371925464</v>
+        <v>0.290714421078862</v>
       </c>
       <c r="N4" t="n">
-        <v>0.04902536552398313</v>
+        <v>0.08504988980059783</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01017831405798971</v>
+        <v>0.02965546985951808</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>{'criterion': 'absolute_error', 'splitter': 'random', 'max_depth': 3, 'min_samples_split': 26, 'min_samples_leaf': 3, 'min_weight_fraction_leaf': 0.13932323211830572, 'max_features': 0.5, 'max_leaf_nodes': None, 'min_impurity_decrease': 4.773901130843782e-05, 'ccp_alpha': 2.827801042638613e-07, 'random_state': 42}</t>
+          <t>{'criterion': 'squared_error', 'splitter': 'best', 'max_depth': 6, 'min_samples_split': 40, 'min_samples_leaf': 45, 'min_weight_fraction_leaf': 0.1689975784257679, 'max_features': 'log2', 'max_leaf_nodes': 100, 'min_impurity_decrease': 4.0852280036686224e-05, 'ccp_alpha': 0.0007078932406899764, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -722,36 +722,36 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'criterion': 'absolute_error', 'splitter': 'random', 'max_depth': 3, 'min_samples_split': 26, 'min_samples_leaf': 3, 'min_weight_fraction_leaf': 0.13932323211830572, 'max_features': 0.5, 'max_leaf_nodes': None, 'min_impurity_decrease': 4.773901130843782e-05, 'ccp_alpha': 2.827801042638613e-07}</t>
+          <t>{'criterion': 'absolute_error', 'splitter': 'random', 'max_depth': 6, 'min_samples_split': 49, 'min_samples_leaf': 29, 'min_weight_fraction_leaf': 0.03537498137483252, 'max_features': 0.2, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0011114184719109512, 'ccp_alpha': 2.127868256994805e-06}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-0.08221951250118682</v>
+        <v>-0.1037581096414112</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9117223463109182</v>
+        <v>0.8911424473750866</v>
       </c>
       <c r="K5" t="n">
-        <v>0.091865278233111</v>
+        <v>0.08739405385951282</v>
       </c>
       <c r="L5" t="n">
-        <v>1.569614956607857</v>
+        <v>1.292527092039654</v>
       </c>
       <c r="M5" t="n">
-        <v>0.292636315512554</v>
+        <v>0.1109603780431766</v>
       </c>
       <c r="N5" t="n">
-        <v>0.08221951250118682</v>
+        <v>0.1037581096414112</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06778950615459685</v>
+        <v>0.05050248827338097</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>{'criterion': 'absolute_error', 'splitter': 'random', 'max_depth': 3, 'min_samples_split': 26, 'min_samples_leaf': 3, 'min_weight_fraction_leaf': 0.13932323211830572, 'max_features': 0.5, 'max_leaf_nodes': None, 'min_impurity_decrease': 4.773901130843782e-05, 'ccp_alpha': 2.827801042638613e-07, 'random_state': 42}</t>
+          <t>{'criterion': 'absolute_error', 'splitter': 'random', 'max_depth': 6, 'min_samples_split': 49, 'min_samples_leaf': 29, 'min_weight_fraction_leaf': 0.03537498137483252, 'max_features': 0.2, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0011114184719109512, 'ccp_alpha': 2.127868256994805e-06, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -782,36 +782,36 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'splitter': 'best', 'max_depth': 32, 'min_samples_split': 32, 'min_samples_leaf': 17, 'min_weight_fraction_leaf': 0.03177917514301182, 'max_features': 0.5, 'max_leaf_nodes': 100, 'min_impurity_decrease': 1.3731092468240299e-05, 'ccp_alpha': 1.3399717231179722e-07}</t>
+          <t>{'criterion': 'squared_error', 'splitter': 'best', 'max_depth': 4, 'min_samples_split': 43, 'min_samples_leaf': 28, 'min_weight_fraction_leaf': 0.031027412701349684, 'max_features': None, 'max_leaf_nodes': 200, 'min_impurity_decrease': 1.0456288245086318e-05, 'ccp_alpha': 8.464432444788315e-05}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-0.07327783613435895</v>
+        <v>-0.1075877702284816</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9123840488069864</v>
+        <v>0.8818130113428698</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05415241188597247</v>
+        <v>0.05806162199981693</v>
       </c>
       <c r="L6" t="n">
-        <v>12.56860275271129</v>
+        <v>10.67091715530334</v>
       </c>
       <c r="M6" t="n">
-        <v>11.04072453052667</v>
+        <v>11.46761938105342</v>
       </c>
       <c r="N6" t="n">
-        <v>0.07327783613435895</v>
+        <v>0.1075877702284816</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05869561673380284</v>
+        <v>0.05691285736069983</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>{'criterion': 'friedman_mse', 'splitter': 'best', 'max_depth': 32, 'min_samples_split': 32, 'min_samples_leaf': 17, 'min_weight_fraction_leaf': 0.03177917514301182, 'max_features': 0.5, 'max_leaf_nodes': 100, 'min_impurity_decrease': 1.3731092468240299e-05, 'ccp_alpha': 1.3399717231179722e-07, 'random_state': 42}</t>
+          <t>{'criterion': 'squared_error', 'splitter': 'best', 'max_depth': 4, 'min_samples_split': 43, 'min_samples_leaf': 28, 'min_weight_fraction_leaf': 0.031027412701349684, 'max_features': None, 'max_leaf_nodes': 200, 'min_impurity_decrease': 1.0456288245086318e-05, 'ccp_alpha': 8.464432444788315e-05, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -842,36 +842,36 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'alpha': 5.5641802254313645e-05, 'l1_ratio': 0.9507143064099162, 'fit_intercept': True, 'positive': True, 'max_iter': 130, 'tol': 0.021423021757741054, 'selection': 'random', 'warm_start': False}</t>
+          <t>{'alpha': 0.04209785703407817, 'l1_ratio': 0.7890650004793835, 'fit_intercept': False, 'positive': False, 'max_iter': 1159, 'tol': 0.00011428776587653609, 'selection': 'random', 'warm_start': True}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.02902627592688798</v>
+        <v>-0.09728248622234321</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="J7" t="n">
-        <v>1.011097315306594</v>
+        <v>0.8860174842461783</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06845142011324901</v>
+        <v>0.04751581890897011</v>
       </c>
       <c r="L7" t="n">
-        <v>1.111042844311781</v>
+        <v>1.240370671702393</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03469852918263054</v>
+        <v>0.1500781293736913</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.02902627592688798</v>
+        <v>0.09728248622234321</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02778730915183411</v>
+        <v>0.01927095030039389</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>{'alpha': 5.5641802254313645e-05, 'l1_ratio': 0.9507143064099162, 'fit_intercept': True, 'positive': True, 'max_iter': 130, 'tol': 0.021423021757741054, 'selection': 'random', 'warm_start': False, 'random_state': 42}</t>
+          <t>{'alpha': 0.04209785703407817, 'l1_ratio': 0.7890650004793835, 'fit_intercept': False, 'positive': False, 'max_iter': 1159, 'tol': 0.00011428776587653609, 'selection': 'random', 'warm_start': True, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -902,36 +902,36 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'alpha': 5.5641802254313645e-05, 'l1_ratio': 0.9507143064099162, 'fit_intercept': True, 'positive': True, 'max_iter': 130, 'tol': 0.021423021757741054, 'selection': 'random', 'warm_start': False}</t>
+          <t>{'alpha': 0.04547127963004669, 'l1_ratio': 0.9102481059640438, 'fit_intercept': False, 'positive': False, 'max_iter': 331, 'tol': 0.0007711813135504608, 'selection': 'random', 'warm_start': True}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.02622248435830654</v>
+        <v>-0.08645223447345712</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="J8" t="n">
-        <v>1.008389791791864</v>
+        <v>0.8983645479413964</v>
       </c>
       <c r="K8" t="n">
-        <v>0.09637826890814476</v>
+        <v>0.08302196187756597</v>
       </c>
       <c r="L8" t="n">
-        <v>1.301509801892901</v>
+        <v>1.441812045264183</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1042151438233788</v>
+        <v>0.2082646249332356</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.02622248435830654</v>
+        <v>0.08645223447345712</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02817636326670152</v>
+        <v>0.02200436567667374</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>{'alpha': 5.5641802254313645e-05, 'l1_ratio': 0.9507143064099162, 'fit_intercept': True, 'positive': True, 'max_iter': 130, 'tol': 0.021423021757741054, 'selection': 'random', 'warm_start': False, 'random_state': 42}</t>
+          <t>{'alpha': 0.04547127963004669, 'l1_ratio': 0.9102481059640438, 'fit_intercept': False, 'positive': False, 'max_iter': 331, 'tol': 0.0007711813135504608, 'selection': 'random', 'warm_start': True, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -962,36 +962,36 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'alpha': 5.5641802254313645e-05, 'l1_ratio': 0.9507143064099162, 'fit_intercept': True, 'positive': True, 'max_iter': 130, 'tol': 0.021423021757741054, 'selection': 'random', 'warm_start': False}</t>
+          <t>{'alpha': 0.059683959264237, 'l1_ratio': 0.9091257383271225, 'fit_intercept': False, 'positive': False, 'max_iter': 1355, 'tol': 0.0006859438813480416, 'selection': 'random', 'warm_start': True}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.05290078092805175</v>
+        <v>-0.06064091182280575</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="J9" t="n">
-        <v>1.031089541184674</v>
+        <v>0.9187669232310323</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1410035679182633</v>
+        <v>0.1435885112233824</v>
       </c>
       <c r="L9" t="n">
-        <v>1.332101953421631</v>
+        <v>1.306867767928291</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2034640337910344</v>
+        <v>0.1365467651217301</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.05290078092805175</v>
+        <v>0.06064091182280575</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02533680979074308</v>
+        <v>0.02627110485700535</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>{'alpha': 5.5641802254313645e-05, 'l1_ratio': 0.9507143064099162, 'fit_intercept': True, 'positive': True, 'max_iter': 130, 'tol': 0.021423021757741054, 'selection': 'random', 'warm_start': False, 'random_state': 42}</t>
+          <t>{'alpha': 0.059683959264237, 'l1_ratio': 0.9091257383271225, 'fit_intercept': False, 'positive': False, 'max_iter': 1355, 'tol': 0.0006859438813480416, 'selection': 'random', 'warm_start': True, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1022,36 +1022,36 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'alpha': 5.5641802254313645e-05, 'l1_ratio': 0.9507143064099162, 'fit_intercept': True, 'positive': True, 'max_iter': 130, 'tol': 0.021423021757741054, 'selection': 'random', 'warm_start': False}</t>
+          <t>{'alpha': 0.10953163449765933, 'l1_ratio': 0.05515119990631198, 'fit_intercept': False, 'positive': False, 'max_iter': 254, 'tol': 0.015895207536775632, 'selection': 'cyclic', 'warm_start': True}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.009735261945589935</v>
+        <v>-0.1030077001095495</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="J10" t="n">
-        <v>1.002446908620514</v>
+        <v>0.8914357091170663</v>
       </c>
       <c r="K10" t="n">
-        <v>0.09016181401001797</v>
+        <v>0.07747689611329896</v>
       </c>
       <c r="L10" t="n">
-        <v>1.200529527384661</v>
+        <v>1.322885102630663</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1177931072995766</v>
+        <v>0.1256336118894968</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.009735261945589935</v>
+        <v>0.1030077001095495</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01929727651061551</v>
+        <v>0.02415780103333751</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>{'alpha': 5.5641802254313645e-05, 'l1_ratio': 0.9507143064099162, 'fit_intercept': True, 'positive': True, 'max_iter': 130, 'tol': 0.021423021757741054, 'selection': 'random', 'warm_start': False, 'random_state': 42}</t>
+          <t>{'alpha': 0.10953163449765933, 'l1_ratio': 0.05515119990631198, 'fit_intercept': False, 'positive': False, 'max_iter': 254, 'tol': 0.015895207536775632, 'selection': 'cyclic', 'warm_start': True, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1082,36 +1082,36 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'alpha': 5.5641802254313645e-05, 'l1_ratio': 0.9507143064099162, 'fit_intercept': True, 'positive': True, 'max_iter': 130, 'tol': 0.021423021757741054, 'selection': 'random', 'warm_start': False}</t>
+          <t>{'alpha': 0.14356601340130465, 'l1_ratio': 0.052135023609178745, 'fit_intercept': False, 'positive': False, 'max_iter': 324, 'tol': 0.053925114228681625, 'selection': 'random', 'warm_start': False}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.005825041836763958</v>
+        <v>-0.1002500664807342</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9925300462725978</v>
+        <v>0.8873754480684594</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02987027902906468</v>
+        <v>0.04015731482280699</v>
       </c>
       <c r="L11" t="n">
-        <v>5.890901001668389</v>
+        <v>7.312633094942099</v>
       </c>
       <c r="M11" t="n">
-        <v>8.037083269080915</v>
+        <v>6.092055182496131</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.005825041836763958</v>
+        <v>0.1002500664807342</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01633978975199765</v>
+        <v>0.02147947186224872</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>{'alpha': 5.5641802254313645e-05, 'l1_ratio': 0.9507143064099162, 'fit_intercept': True, 'positive': True, 'max_iter': 130, 'tol': 0.021423021757741054, 'selection': 'random', 'warm_start': False, 'random_state': 42}</t>
+          <t>{'alpha': 0.14356601340130465, 'l1_ratio': 0.052135023609178745, 'fit_intercept': False, 'positive': False, 'max_iter': 324, 'tol': 0.053925114228681625, 'selection': 'random', 'warm_start': False, 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1142,36 +1142,36 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'n_estimators': 76, 'learning_rate': 0.0016480446427978971, 'max_depth': 6, 'min_samples_split': 44, 'min_samples_leaf': 15, 'subsample': 0.8059264473611898, 'max_features': 0.8, 'loss': 'absolute_error'}</t>
+          <t>{'n_estimators': 143, 'learning_rate': 0.011076965779493892, 'max_depth': 7, 'min_samples_split': 6, 'min_samples_leaf': 5, 'subsample': 0.6829410860573382, 'max_features': 'log2', 'loss': 'huber'}</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.001466188318235743</v>
+        <v>-0.1195740227178192</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9835131894133166</v>
+        <v>0.8635900112924449</v>
       </c>
       <c r="K12" t="n">
-        <v>0.07127703327495322</v>
+        <v>0.04779081101788373</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01080546727673</v>
+        <v>1.449462202246538</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01258633602579008</v>
+        <v>0.3565147503869794</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.001466188318235743</v>
+        <v>0.1195740227178192</v>
       </c>
       <c r="O12" t="n">
-        <v>0.03794289935480103</v>
+        <v>0.02659220384597032</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>{'n_estimators': 76, 'learning_rate': 0.0016480446427978971, 'max_depth': 6, 'min_samples_split': 44, 'min_samples_leaf': 15, 'subsample': 0.8059264473611898, 'max_features': 0.8, 'loss': 'absolute_error', 'random_state': 42}</t>
+          <t>{'n_estimators': 143, 'learning_rate': 0.011076965779493892, 'max_depth': 7, 'min_samples_split': 6, 'min_samples_leaf': 5, 'subsample': 0.6829410860573382, 'max_features': 'log2', 'loss': 'huber', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1202,36 +1202,36 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'n_estimators': 76, 'learning_rate': 0.0016480446427978971, 'max_depth': 6, 'min_samples_split': 44, 'min_samples_leaf': 15, 'subsample': 0.8059264473611898, 'max_features': 0.8, 'loss': 'absolute_error'}</t>
+          <t>{'n_estimators': 59, 'learning_rate': 0.04321112218034596, 'max_depth': 5, 'min_samples_split': 100, 'min_samples_leaf': 14, 'subsample': 0.7815441125284294, 'max_features': 0.8, 'loss': 'huber'}</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.01834977809009076</v>
+        <v>-0.09020967404357957</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="J13" t="n">
-        <v>1.001209270248405</v>
+        <v>0.8946487597313574</v>
       </c>
       <c r="K13" t="n">
-        <v>0.09872273684632356</v>
+        <v>0.07376575710701808</v>
       </c>
       <c r="L13" t="n">
-        <v>1.164889974644759</v>
+        <v>1.506938928123269</v>
       </c>
       <c r="M13" t="n">
-        <v>0.09070262868206956</v>
+        <v>0.2076419501536329</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.01834977809009076</v>
+        <v>0.09020967404357957</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0379273925747646</v>
+        <v>0.02465973793166918</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>{'n_estimators': 76, 'learning_rate': 0.0016480446427978971, 'max_depth': 6, 'min_samples_split': 44, 'min_samples_leaf': 15, 'subsample': 0.8059264473611898, 'max_features': 0.8, 'loss': 'absolute_error', 'random_state': 42}</t>
+          <t>{'n_estimators': 59, 'learning_rate': 0.04321112218034596, 'max_depth': 5, 'min_samples_split': 100, 'min_samples_leaf': 14, 'subsample': 0.7815441125284294, 'max_features': 0.8, 'loss': 'huber', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1262,36 +1262,36 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'n_estimators': 76, 'learning_rate': 0.0016480446427978971, 'max_depth': 6, 'min_samples_split': 44, 'min_samples_leaf': 15, 'subsample': 0.8059264473611898, 'max_features': 0.8, 'loss': 'absolute_error'}</t>
+          <t>{'n_estimators': 273, 'learning_rate': 0.006592394176615025, 'max_depth': 2, 'min_samples_split': 86, 'min_samples_leaf': 13, 'subsample': 0.5808160266382706, 'max_features': 1.0, 'loss': 'huber'}</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.01305583197941886</v>
+        <v>-0.08429850328911265</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9906366067969981</v>
+        <v>0.8966474440830898</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1260691395286536</v>
+        <v>0.1379857855770487</v>
       </c>
       <c r="L14" t="n">
-        <v>1.134805329626707</v>
+        <v>1.279445549657942</v>
       </c>
       <c r="M14" t="n">
-        <v>0.09634907082197491</v>
+        <v>0.1471278213389877</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.01305583197941886</v>
+        <v>0.08429850328911265</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02116879246814908</v>
+        <v>0.01836156846005771</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>{'n_estimators': 76, 'learning_rate': 0.0016480446427978971, 'max_depth': 6, 'min_samples_split': 44, 'min_samples_leaf': 15, 'subsample': 0.8059264473611898, 'max_features': 0.8, 'loss': 'absolute_error', 'random_state': 42}</t>
+          <t>{'n_estimators': 273, 'learning_rate': 0.006592394176615025, 'max_depth': 2, 'min_samples_split': 86, 'min_samples_leaf': 13, 'subsample': 0.5808160266382706, 'max_features': 1.0, 'loss': 'huber', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1322,36 +1322,36 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'n_estimators': 76, 'learning_rate': 0.0016480446427978971, 'max_depth': 6, 'min_samples_split': 44, 'min_samples_leaf': 15, 'subsample': 0.8059264473611898, 'max_features': 0.8, 'loss': 'absolute_error'}</t>
+          <t>{'n_estimators': 481, 'learning_rate': 0.008590389916553634, 'max_depth': 9, 'min_samples_split': 88, 'min_samples_leaf': 6, 'subsample': 0.7692787680803762, 'max_features': 0.5, 'loss': 'squared_error'}</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>-0.01685060538788178</v>
+        <v>-0.1378932759279665</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9770146139292968</v>
+        <v>0.8547330053614162</v>
       </c>
       <c r="K15" t="n">
-        <v>0.07614077786529205</v>
+        <v>0.07643283532688606</v>
       </c>
       <c r="L15" t="n">
-        <v>1.073809007544725</v>
+        <v>1.569576829235665</v>
       </c>
       <c r="M15" t="n">
-        <v>0.07116648702797324</v>
+        <v>0.2981976885934191</v>
       </c>
       <c r="N15" t="n">
-        <v>0.01685060538788178</v>
+        <v>0.1378932759279665</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01009921563583168</v>
+        <v>0.04489752288024332</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>{'n_estimators': 76, 'learning_rate': 0.0016480446427978971, 'max_depth': 6, 'min_samples_split': 44, 'min_samples_leaf': 15, 'subsample': 0.8059264473611898, 'max_features': 0.8, 'loss': 'absolute_error', 'random_state': 42}</t>
+          <t>{'n_estimators': 481, 'learning_rate': 0.008590389916553634, 'max_depth': 9, 'min_samples_split': 88, 'min_samples_leaf': 6, 'subsample': 0.7692787680803762, 'max_features': 0.5, 'loss': 'squared_error', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1382,36 +1382,36 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'n_estimators': 76, 'learning_rate': 0.0016480446427978971, 'max_depth': 6, 'min_samples_split': 44, 'min_samples_leaf': 15, 'subsample': 0.8059264473611898, 'max_features': 0.8, 'loss': 'absolute_error'}</t>
+          <t>{'n_estimators': 57, 'learning_rate': 0.07403356291952541, 'max_depth': 4, 'min_samples_split': 85, 'min_samples_leaf': 10, 'subsample': 0.568294867263148, 'max_features': 'sqrt', 'loss': 'squared_error'}</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>-0.009887691453892325</v>
+        <v>-0.1281786338926717</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9774496752182329</v>
+        <v>0.8586557818582861</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03549051285889979</v>
+        <v>0.02827018739517262</v>
       </c>
       <c r="L16" t="n">
-        <v>2.305103016864007</v>
+        <v>8.906377068763126</v>
       </c>
       <c r="M16" t="n">
-        <v>1.316918292198203</v>
+        <v>8.196909866381679</v>
       </c>
       <c r="N16" t="n">
-        <v>0.009887691453892325</v>
+        <v>0.1281786338926717</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01991860536705601</v>
+        <v>0.02797398615886305</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>{'n_estimators': 76, 'learning_rate': 0.0016480446427978971, 'max_depth': 6, 'min_samples_split': 44, 'min_samples_leaf': 15, 'subsample': 0.8059264473611898, 'max_features': 0.8, 'loss': 'absolute_error', 'random_state': 42}</t>
+          <t>{'n_estimators': 57, 'learning_rate': 0.07403356291952541, 'max_depth': 4, 'min_samples_split': 85, 'min_samples_leaf': 10, 'subsample': 0.568294867263148, 'max_features': 'sqrt', 'loss': 'squared_error', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1442,36 +1442,36 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 19, 'weights': 'uniform', 'algorithm': 'auto', 'leaf_size': 54, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 9, 'weights': 'uniform', 'algorithm': 'ball_tree', 'leaf_size': 53, 'p': 1, 'metric': 'euclidean'}</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>-0.07085743543945382</v>
+        <v>-0.09403825516290694</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9110663900240061</v>
+        <v>0.8883267595984202</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04860408595274694</v>
+        <v>0.04646113528784343</v>
       </c>
       <c r="L17" t="n">
-        <v>1.391216766736641</v>
+        <v>1.617064068062617</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3142886230393667</v>
+        <v>0.4914584878426363</v>
       </c>
       <c r="N17" t="n">
-        <v>0.07085743543945382</v>
+        <v>0.09403825516290694</v>
       </c>
       <c r="O17" t="n">
-        <v>0.03309375740407243</v>
+        <v>0.0224090000527594</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 19, 'weights': 'uniform', 'algorithm': 'auto', 'leaf_size': 54, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 9, 'weights': 'uniform', 'algorithm': 'ball_tree', 'leaf_size': 53, 'p': 1, 'metric': 'euclidean'}</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1502,36 +1502,36 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 19, 'weights': 'uniform', 'algorithm': 'auto', 'leaf_size': 54, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 42, 'weights': 'uniform', 'algorithm': 'ball_tree', 'leaf_size': 55, 'p': 1, 'metric': 'minkowski'}</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>-0.009077717419218517</v>
+        <v>-0.06008250464070437</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9738358350521077</v>
+        <v>0.9238108633592932</v>
       </c>
       <c r="K18" t="n">
-        <v>0.09161986348347141</v>
+        <v>0.08875241449777996</v>
       </c>
       <c r="L18" t="n">
-        <v>1.576626198206559</v>
+        <v>1.329382603983811</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1726177379533551</v>
+        <v>0.1409770996252909</v>
       </c>
       <c r="N18" t="n">
-        <v>0.009077717419218517</v>
+        <v>0.06008250464070437</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01278352240724167</v>
+        <v>0.02400278227502101</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 19, 'weights': 'uniform', 'algorithm': 'auto', 'leaf_size': 54, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 42, 'weights': 'uniform', 'algorithm': 'ball_tree', 'leaf_size': 55, 'p': 1, 'metric': 'minkowski'}</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1562,36 +1562,36 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 19, 'weights': 'uniform', 'algorithm': 'auto', 'leaf_size': 54, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 37, 'weights': 'uniform', 'algorithm': 'ball_tree', 'leaf_size': 58, 'p': 1, 'metric': 'chebyshev'}</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>-0.008947451049462143</v>
+        <v>-0.05416742469897284</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9676589673016602</v>
+        <v>0.9260252459974889</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1518747824544101</v>
+        <v>0.1438778913993747</v>
       </c>
       <c r="L19" t="n">
-        <v>1.482300659289434</v>
+        <v>1.345095641161628</v>
       </c>
       <c r="M19" t="n">
-        <v>0.06295821463179026</v>
+        <v>0.05170802831540738</v>
       </c>
       <c r="N19" t="n">
-        <v>0.008947451049462143</v>
+        <v>0.05416742469897284</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02942082957208314</v>
+        <v>0.03036367342983873</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 19, 'weights': 'uniform', 'algorithm': 'auto', 'leaf_size': 54, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 37, 'weights': 'uniform', 'algorithm': 'ball_tree', 'leaf_size': 58, 'p': 1, 'metric': 'chebyshev'}</t>
         </is>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1622,36 +1622,36 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 19, 'weights': 'uniform', 'algorithm': 'auto', 'leaf_size': 54, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 7, 'weights': 'uniform', 'algorithm': 'brute', 'leaf_size': 19, 'p': 1, 'metric': 'euclidean'}</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>-0.08249266789926898</v>
+        <v>-0.104967195552227</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9109650640727551</v>
+        <v>0.8857960472602296</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0894711920203175</v>
+        <v>0.06747011649712142</v>
       </c>
       <c r="L20" t="n">
-        <v>1.623036759087801</v>
+        <v>1.98953278741137</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4269680349466545</v>
+        <v>0.4844802655067964</v>
       </c>
       <c r="N20" t="n">
-        <v>0.08249266789926898</v>
+        <v>0.104967195552227</v>
       </c>
       <c r="O20" t="n">
-        <v>0.03909332038231544</v>
+        <v>0.03023021543052251</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 19, 'weights': 'uniform', 'algorithm': 'auto', 'leaf_size': 54, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 7, 'weights': 'uniform', 'algorithm': 'brute', 'leaf_size': 19, 'p': 1, 'metric': 'euclidean'}</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1682,36 +1682,36 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 19, 'weights': 'uniform', 'algorithm': 'auto', 'leaf_size': 54, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 48, 'weights': 'uniform', 'algorithm': 'kd_tree', 'leaf_size': 41, 'p': 1, 'metric': 'minkowski'}</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>-0.05059492561561631</v>
+        <v>-0.07223896396897056</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9362840991188651</v>
+        <v>0.9168924338946389</v>
       </c>
       <c r="K21" t="n">
-        <v>0.03742151133287566</v>
+        <v>0.02805964745160766</v>
       </c>
       <c r="L21" t="n">
-        <v>12.20868128513251</v>
+        <v>5.369195500451064</v>
       </c>
       <c r="M21" t="n">
-        <v>11.56740282749637</v>
+        <v>4.236368849342161</v>
       </c>
       <c r="N21" t="n">
-        <v>0.05059492561561631</v>
+        <v>0.07223896396897056</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01862636628170414</v>
+        <v>0.02111048410366567</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 19, 'weights': 'uniform', 'algorithm': 'auto', 'leaf_size': 54, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 48, 'weights': 'uniform', 'algorithm': 'kd_tree', 'leaf_size': 41, 'p': 1, 'metric': 'minkowski'}</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1742,36 +1742,36 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 106, 'min_samples_split': 37, 'min_samples_leaf': 30, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 59, 'max_depth': 6, 'min_samples_split': 10, 'min_samples_leaf': 2, 'max_features': 'log2', 'bootstrap': True, 'criterion': 'squared_error'}</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>-0.09707861334701992</v>
+        <v>-0.127853912231782</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8856017632491925</v>
+        <v>0.8552149957805347</v>
       </c>
       <c r="K22" t="n">
-        <v>0.05737940373630173</v>
+        <v>0.05210975534408793</v>
       </c>
       <c r="L22" t="n">
-        <v>1.241699929747886</v>
+        <v>1.481093625781938</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1770008275427576</v>
+        <v>0.3340961112238671</v>
       </c>
       <c r="N22" t="n">
-        <v>0.09707861334701992</v>
+        <v>0.127853912231782</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02661602669442134</v>
+        <v>0.03535691472837469</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 106, 'min_samples_split': 37, 'min_samples_leaf': 30, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error', 'random_state': 42}</t>
+          <t>{'n_estimators': 59, 'max_depth': 6, 'min_samples_split': 10, 'min_samples_leaf': 2, 'max_features': 'log2', 'bootstrap': True, 'criterion': 'squared_error', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1802,36 +1802,36 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 106, 'min_samples_split': 37, 'min_samples_leaf': 30, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 199, 'max_depth': 11, 'min_samples_split': 3, 'min_samples_leaf': 31, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>-0.08385072230834861</v>
+        <v>-0.08655450979645056</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9017517386171892</v>
+        <v>0.8996702472466968</v>
       </c>
       <c r="K23" t="n">
-        <v>0.07796928305623708</v>
+        <v>0.0793012309006587</v>
       </c>
       <c r="L23" t="n">
-        <v>1.470055637945206</v>
+        <v>1.447587063366282</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2197781942160343</v>
+        <v>0.1954346363443513</v>
       </c>
       <c r="N23" t="n">
-        <v>0.08385072230834861</v>
+        <v>0.08655450979645056</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01195148749632172</v>
+        <v>0.009328726626003257</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 106, 'min_samples_split': 37, 'min_samples_leaf': 30, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error', 'random_state': 42}</t>
+          <t>{'n_estimators': 199, 'max_depth': 11, 'min_samples_split': 3, 'min_samples_leaf': 31, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1862,36 +1862,36 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 106, 'min_samples_split': 37, 'min_samples_leaf': 30, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 280, 'max_depth': 3, 'min_samples_split': 4, 'min_samples_leaf': 15, 'max_features': 'log2', 'bootstrap': False, 'criterion': 'squared_error'}</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>-0.07200359940728195</v>
+        <v>-0.08654777172669539</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9073525445094341</v>
+        <v>0.892404072359652</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1370983766441841</v>
+        <v>0.144836570666277</v>
       </c>
       <c r="L24" t="n">
-        <v>1.418747225950266</v>
+        <v>1.296633431000557</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2117855584465044</v>
+        <v>0.07682932391269987</v>
       </c>
       <c r="N24" t="n">
-        <v>0.07200359940728195</v>
+        <v>0.08654777172669539</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0192795132998113</v>
+        <v>0.02899091330243169</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 106, 'min_samples_split': 37, 'min_samples_leaf': 30, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error', 'random_state': 42}</t>
+          <t>{'n_estimators': 280, 'max_depth': 3, 'min_samples_split': 4, 'min_samples_leaf': 15, 'max_features': 'log2', 'bootstrap': False, 'criterion': 'squared_error', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1922,36 +1922,36 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 106, 'min_samples_split': 37, 'min_samples_leaf': 30, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 483, 'max_depth': 125, 'min_samples_split': 13, 'min_samples_leaf': 6, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'squared_error'}</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>-0.1127903966115845</v>
+        <v>-0.1490426367234041</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8798500143424861</v>
+        <v>0.8443756320456948</v>
       </c>
       <c r="K25" t="n">
-        <v>0.06994868717855045</v>
+        <v>0.06878910975350945</v>
       </c>
       <c r="L25" t="n">
-        <v>1.339073850158996</v>
+        <v>1.685417666756452</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1362532229909809</v>
+        <v>0.4047878277257366</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1127903966115845</v>
+        <v>0.1490426367234041</v>
       </c>
       <c r="O25" t="n">
-        <v>0.03139986575304325</v>
+        <v>0.04122788173530658</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 106, 'min_samples_split': 37, 'min_samples_leaf': 30, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error', 'random_state': 42}</t>
+          <t>{'n_estimators': 483, 'max_depth': 125, 'min_samples_split': 13, 'min_samples_leaf': 6, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'squared_error', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1982,36 +1982,36 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 106, 'min_samples_split': 37, 'min_samples_leaf': 30, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 65, 'max_depth': 25, 'min_samples_split': 50, 'min_samples_leaf': 24, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>-0.1089542803692912</v>
+        <v>-0.1219259836667789</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8796288619338102</v>
+        <v>0.866013765380572</v>
       </c>
       <c r="K26" t="n">
-        <v>0.03953634539931818</v>
+        <v>0.03165659179419889</v>
       </c>
       <c r="L26" t="n">
-        <v>8.547498574853682</v>
+        <v>8.79708236310011</v>
       </c>
       <c r="M26" t="n">
-        <v>7.326179264175733</v>
+        <v>7.56217305551024</v>
       </c>
       <c r="N26" t="n">
-        <v>0.1089542803692912</v>
+        <v>0.1219259836667789</v>
       </c>
       <c r="O26" t="n">
-        <v>0.03230039603448157</v>
+        <v>0.02937884666576552</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 106, 'min_samples_split': 37, 'min_samples_leaf': 30, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error', 'random_state': 42}</t>
+          <t>{'n_estimators': 65, 'max_depth': 25, 'min_samples_split': 50, 'min_samples_leaf': 24, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error', 'random_state': 42}</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2042,36 +2042,36 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 7.451156502282094e-05, 'epsilon': 8.629132190071855e-06, 'gamma_choice': 'auto', 'coef0': 0.416145155592091, 'shrinking': False}</t>
+          <t>{'kernel': 'rbf', 'C': 400313.3754379632, 'epsilon': 0.6183892902306093, 'gamma_choice': 'float', 'gamma': 7.312238589413084e-05, 'coef0': -0.6376812672917858, 'shrinking': False}</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.02877162478073894</v>
+        <v>-0.093043493908915</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="J27" t="n">
-        <v>1.010344737663182</v>
+        <v>0.8900700677257835</v>
       </c>
       <c r="K27" t="n">
-        <v>0.07235731823846857</v>
+        <v>0.05121824416833652</v>
       </c>
       <c r="L27" t="n">
-        <v>1.006783265964978</v>
+        <v>1.343874550323765</v>
       </c>
       <c r="M27" t="n">
-        <v>0.02467780398611641</v>
+        <v>0.2383223525405125</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.02877162478073894</v>
+        <v>0.093043493908915</v>
       </c>
       <c r="O27" t="n">
-        <v>0.03741057952420109</v>
+        <v>0.02813627337375357</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 7.451156502282094e-05, 'gamma': 'auto', 'epsilon': 8.629132190071855e-06, 'coef0': 0.416145155592091, 'degree': 3, 'shrinking': False, 'max_iter': 500000}</t>
+          <t>{'kernel': 'rbf', 'C': 400313.3754379632, 'gamma': 7.312238589413084e-05, 'epsilon': 0.6183892902306093, 'coef0': -0.6376812672917858, 'degree': 3, 'shrinking': False, 'max_iter': 500000}</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2102,36 +2102,36 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 7.451156502282094e-05, 'epsilon': 8.629132190071855e-06, 'gamma_choice': 'auto', 'coef0': 0.416145155592091, 'shrinking': False}</t>
+          <t>{'kernel': 'linear', 'C': 1.3246789035817195, 'epsilon': 0.16913866371414257, 'gamma_choice': 'auto', 'coef0': -0.22779369377748168, 'shrinking': True}</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.04037289598679694</v>
+        <v>-0.07210640085051807</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="J28" t="n">
-        <v>1.022822191438876</v>
+        <v>0.91079915529252</v>
       </c>
       <c r="K28" t="n">
-        <v>0.101058167411434</v>
+        <v>0.08430635907399903</v>
       </c>
       <c r="L28" t="n">
-        <v>1.159550522984505</v>
+        <v>1.574073108920975</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0923809412133143</v>
+        <v>0.1992685686890362</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.04037289598679694</v>
+        <v>0.07210640085051807</v>
       </c>
       <c r="O28" t="n">
-        <v>0.03723082671544731</v>
+        <v>0.04060994332329795</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 7.451156502282094e-05, 'gamma': 'auto', 'epsilon': 8.629132190071855e-06, 'coef0': 0.416145155592091, 'degree': 3, 'shrinking': False, 'max_iter': 500000}</t>
+          <t>{'kernel': 'linear', 'C': 1.3246789035817195, 'gamma': 'auto', 'epsilon': 0.16913866371414257, 'coef0': -0.22779369377748168, 'degree': 3, 'shrinking': True, 'max_iter': 500000}</t>
         </is>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2162,36 +2162,36 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 7.451156502282094e-05, 'epsilon': 8.629132190071855e-06, 'gamma_choice': 'auto', 'coef0': 0.416145155592091, 'shrinking': False}</t>
+          <t>{'kernel': 'rbf', 'C': 12.582169754789097, 'epsilon': 0.000652712288843163, 'gamma_choice': 'float', 'gamma': 0.02849800692017527, 'coef0': 0.8665824408611568, 'shrinking': False}</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.04001634256554849</v>
+        <v>-0.05815861926168547</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="J29" t="n">
-        <v>1.016231232056185</v>
+        <v>0.9186793258012536</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1247040466824407</v>
+        <v>0.1457313108128307</v>
       </c>
       <c r="L29" t="n">
-        <v>1.122253531810222</v>
+        <v>1.656437279377682</v>
       </c>
       <c r="M29" t="n">
-        <v>0.09435050862059684</v>
+        <v>0.2419302753835696</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.04001634256554849</v>
+        <v>0.05815861926168547</v>
       </c>
       <c r="O29" t="n">
-        <v>0.02370918950754308</v>
+        <v>0.03052124466332129</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 7.451156502282094e-05, 'gamma': 'auto', 'epsilon': 8.629132190071855e-06, 'coef0': 0.416145155592091, 'degree': 3, 'shrinking': False, 'max_iter': 500000}</t>
+          <t>{'kernel': 'rbf', 'C': 12.582169754789097, 'gamma': 0.02849800692017527, 'epsilon': 0.000652712288843163, 'coef0': 0.8665824408611568, 'degree': 3, 'shrinking': False, 'max_iter': 500000}</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2222,36 +2222,36 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 7.451156502282094e-05, 'epsilon': 8.629132190071855e-06, 'gamma_choice': 'auto', 'coef0': 0.416145155592091, 'shrinking': False}</t>
+          <t>{'kernel': 'rbf', 'C': 0.5507260682338657, 'epsilon': 0.3962326457802648, 'gamma_choice': 'scale', 'coef0': 0.4477188165278826, 'shrinking': False}</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.007415469793591571</v>
+        <v>-0.1212931005430365</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="J30" t="n">
-        <v>1.000295771209704</v>
+        <v>0.8727722910865254</v>
       </c>
       <c r="K30" t="n">
-        <v>0.07568895330579763</v>
+        <v>0.09146599001622055</v>
       </c>
       <c r="L30" t="n">
-        <v>1.076003979580958</v>
+        <v>1.816197827062158</v>
       </c>
       <c r="M30" t="n">
-        <v>0.08570298334891203</v>
+        <v>0.5406600357959391</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.007415469793591571</v>
+        <v>0.1212931005430365</v>
       </c>
       <c r="O30" t="n">
-        <v>0.003850552768264395</v>
+        <v>0.06008458156236603</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 7.451156502282094e-05, 'gamma': 'auto', 'epsilon': 8.629132190071855e-06, 'coef0': 0.416145155592091, 'degree': 3, 'shrinking': False, 'max_iter': 500000}</t>
+          <t>{'kernel': 'rbf', 'C': 0.5507260682338657, 'gamma': 'scale', 'epsilon': 0.3962326457802648, 'coef0': 0.4477188165278826, 'degree': 3, 'shrinking': False, 'max_iter': 500000}</t>
         </is>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2282,36 +2282,36 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 7.451156502282094e-05, 'epsilon': 8.629132190071855e-06, 'gamma_choice': 'auto', 'coef0': 0.416145155592091, 'shrinking': False}</t>
+          <t>{'kernel': 'poly', 'C': 0.12298755141403671, 'epsilon': 0.32046653190634744, 'gamma_choice': 'scale', 'coef0': 0.2718071793878761, 'degree': 2, 'shrinking': False}</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.01897186303338675</v>
+        <v>-0.09476691516344042</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="J31" t="n">
-        <v>1.006092920951245</v>
+        <v>0.8898767035697629</v>
       </c>
       <c r="K31" t="n">
-        <v>0.04105712798998479</v>
+        <v>0.03133202646341608</v>
       </c>
       <c r="L31" t="n">
-        <v>2.372367780360211</v>
+        <v>9.819581341035571</v>
       </c>
       <c r="M31" t="n">
-        <v>1.733948658320544</v>
+        <v>8.749595101699143</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.01897186303338675</v>
+        <v>0.09476691516344042</v>
       </c>
       <c r="O31" t="n">
-        <v>0.02082728846269715</v>
+        <v>0.02778404189642665</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>{'kernel': 'linear', 'C': 7.451156502282094e-05, 'gamma': 'auto', 'epsilon': 8.629132190071855e-06, 'coef0': 0.416145155592091, 'degree': 3, 'shrinking': False, 'max_iter': 500000}</t>
+          <t>{'kernel': 'poly', 'C': 0.12298755141403671, 'gamma': 'scale', 'epsilon': 0.32046653190634744, 'coef0': 0.2718071793878761, 'degree': 2, 'shrinking': False, 'max_iter': 500000}</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2342,36 +2342,36 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 12, 'learning_rate': 0.08471801418819976, 'subsample': 0.7190609389379257, 'colsample_bytree': 0.40921304830970556, 'colsample_bylevel': 0.40919616423534183, 'gamma': 0.5808361216819946, 'min_child_weight': 2.9154431891537547, 'reg_alpha': 0.002570603566117598, 'reg_lambda': 0.023585940584142682, 'booster': 'dart', 'tree_method': 'auto'}</t>
+          <t>{'n_estimators': 445, 'max_depth': 6, 'learning_rate': 0.007899334507587698, 'subsample': 0.9971314360123046, 'colsample_bytree': 0.9026218817884584, 'colsample_bylevel': 0.8786807273181112, 'gamma': 0.46682554270052623, 'min_child_weight': 0.1596272949045139, 'reg_alpha': 1.0084489073795112e-06, 'reg_lambda': 4.8562067745909965e-06, 'booster': 'gbtree', 'tree_method': 'auto'}</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>-0.09333993286571919</v>
+        <v>-0.1273082509088844</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="J32" t="n">
-        <v>0.8879355587721273</v>
+        <v>0.8544362695583732</v>
       </c>
       <c r="K32" t="n">
-        <v>0.06493210090019845</v>
+        <v>0.04476603822358019</v>
       </c>
       <c r="L32" t="n">
-        <v>1.430836142295335</v>
+        <v>1.4029171442531</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2829706085519029</v>
+        <v>0.276427359822381</v>
       </c>
       <c r="N32" t="n">
-        <v>0.09333993286571919</v>
+        <v>0.1273082509088844</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0529674197976031</v>
+        <v>0.03187436099776449</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 12, 'learning_rate': 0.08471801418819976, 'subsample': 0.7190609389379257, 'colsample_bytree': 0.40921304830970556, 'colsample_bylevel': 0.40919616423534183, 'gamma': 0.5808361216819946, 'min_child_weight': 2.9154431891537547, 'reg_alpha': 0.002570603566117598, 'reg_lambda': 0.023585940584142682, 'booster': 'dart', 'tree_method': 'auto', 'random_state': 42, 'verbosity': 0}</t>
+          <t>{'n_estimators': 445, 'max_depth': 6, 'learning_rate': 0.007899334507587698, 'subsample': 0.9971314360123046, 'colsample_bytree': 0.9026218817884584, 'colsample_bylevel': 0.8786807273181112, 'gamma': 0.46682554270052623, 'min_child_weight': 0.1596272949045139, 'reg_alpha': 1.0084489073795112e-06, 'reg_lambda': 4.8562067745909965e-06, 'booster': 'gbtree', 'tree_method': 'auto', 'random_state': 42, 'verbosity': 0}</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2402,36 +2402,36 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 12, 'learning_rate': 0.08471801418819976, 'subsample': 0.7190609389379257, 'colsample_bytree': 0.40921304830970556, 'colsample_bylevel': 0.40919616423534183, 'gamma': 0.5808361216819946, 'min_child_weight': 2.9154431891537547, 'reg_alpha': 0.002570603566117598, 'reg_lambda': 0.023585940584142682, 'booster': 'dart', 'tree_method': 'auto'}</t>
+          <t>{'n_estimators': 161, 'max_depth': 9, 'learning_rate': 0.057570401856936494, 'subsample': 0.5158914667944023, 'colsample_bytree': 0.5150724605398915, 'colsample_bylevel': 0.914778187850138, 'gamma': 2.7747438372637485, 'min_child_weight': 0.005049074833747053, 'reg_alpha': 0.00197851891154711, 'reg_lambda': 0.2826802906665699, 'booster': 'dart', 'tree_method': 'auto'}</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>-0.08493730471052903</v>
+        <v>-0.09884198259012426</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="J33" t="n">
-        <v>0.899580836265249</v>
+        <v>0.8864926576524877</v>
       </c>
       <c r="K33" t="n">
-        <v>0.06612571141876372</v>
+        <v>0.07688837813962905</v>
       </c>
       <c r="L33" t="n">
-        <v>1.606872682740511</v>
+        <v>1.409840295865868</v>
       </c>
       <c r="M33" t="n">
-        <v>0.2349955623181376</v>
+        <v>0.1710950220558157</v>
       </c>
       <c r="N33" t="n">
-        <v>0.08493730471052903</v>
+        <v>0.09884198259012426</v>
       </c>
       <c r="O33" t="n">
-        <v>0.02700848692423448</v>
+        <v>0.02422673111209618</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 12, 'learning_rate': 0.08471801418819976, 'subsample': 0.7190609389379257, 'colsample_bytree': 0.40921304830970556, 'colsample_bylevel': 0.40919616423534183, 'gamma': 0.5808361216819946, 'min_child_weight': 2.9154431891537547, 'reg_alpha': 0.002570603566117598, 'reg_lambda': 0.023585940584142682, 'booster': 'dart', 'tree_method': 'auto', 'random_state': 42, 'verbosity': 0}</t>
+          <t>{'n_estimators': 161, 'max_depth': 9, 'learning_rate': 0.057570401856936494, 'subsample': 0.5158914667944023, 'colsample_bytree': 0.5150724605398915, 'colsample_bylevel': 0.914778187850138, 'gamma': 2.7747438372637485, 'min_child_weight': 0.005049074833747053, 'reg_alpha': 0.00197851891154711, 'reg_lambda': 0.2826802906665699, 'booster': 'dart', 'tree_method': 'auto', 'random_state': 42, 'verbosity': 0}</t>
         </is>
       </c>
     </row>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2462,36 +2462,36 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 12, 'learning_rate': 0.08471801418819976, 'subsample': 0.7190609389379257, 'colsample_bytree': 0.40921304830970556, 'colsample_bylevel': 0.40919616423534183, 'gamma': 0.5808361216819946, 'min_child_weight': 2.9154431891537547, 'reg_alpha': 0.002570603566117598, 'reg_lambda': 0.023585940584142682, 'booster': 'dart', 'tree_method': 'auto'}</t>
+          <t>{'n_estimators': 56, 'max_depth': 1, 'learning_rate': 0.6684845646444602, 'subsample': 0.9102869698912586, 'colsample_bytree': 0.9698646647063082, 'colsample_bylevel': 0.890508764241457, 'gamma': 6.473322017607255, 'min_child_weight': 0.0030887083040050576, 'reg_alpha': 1.7636323230793663e-07, 'reg_lambda': 0.00841798378317936, 'booster': 'gbtree', 'tree_method': 'hist'}</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>-0.06072806903368964</v>
+        <v>-0.09154210129882048</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9169741832759599</v>
+        <v>0.8853788469045152</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1537070817114174</v>
+        <v>0.1363312581171103</v>
       </c>
       <c r="L34" t="n">
-        <v>1.49056106536023</v>
+        <v>1.312447499398313</v>
       </c>
       <c r="M34" t="n">
-        <v>0.1878236127301879</v>
+        <v>0.0883847453475738</v>
       </c>
       <c r="N34" t="n">
-        <v>0.06072806903368964</v>
+        <v>0.09154210129882048</v>
       </c>
       <c r="O34" t="n">
-        <v>0.03491475243694319</v>
+        <v>0.01969002232380585</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 12, 'learning_rate': 0.08471801418819976, 'subsample': 0.7190609389379257, 'colsample_bytree': 0.40921304830970556, 'colsample_bylevel': 0.40919616423534183, 'gamma': 0.5808361216819946, 'min_child_weight': 2.9154431891537547, 'reg_alpha': 0.002570603566117598, 'reg_lambda': 0.023585940584142682, 'booster': 'dart', 'tree_method': 'auto', 'random_state': 42, 'verbosity': 0}</t>
+          <t>{'n_estimators': 56, 'max_depth': 1, 'learning_rate': 0.6684845646444602, 'subsample': 0.9102869698912586, 'colsample_bytree': 0.9698646647063082, 'colsample_bylevel': 0.890508764241457, 'gamma': 6.473322017607255, 'min_child_weight': 0.0030887083040050576, 'reg_alpha': 1.7636323230793663e-07, 'reg_lambda': 0.00841798378317936, 'booster': 'gbtree', 'tree_method': 'hist', 'random_state': 42, 'verbosity': 0}</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2522,36 +2522,36 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 12, 'learning_rate': 0.08471801418819976, 'subsample': 0.7190609389379257, 'colsample_bytree': 0.40921304830970556, 'colsample_bylevel': 0.40919616423534183, 'gamma': 0.5808361216819946, 'min_child_weight': 2.9154431891537547, 'reg_alpha': 0.002570603566117598, 'reg_lambda': 0.023585940584142682, 'booster': 'dart', 'tree_method': 'auto'}</t>
+          <t>{'n_estimators': 492, 'max_depth': 10, 'learning_rate': 0.018792250706998793, 'subsample': 0.5091829444648185, 'colsample_bytree': 0.7106582039062216, 'colsample_bylevel': 0.9442427267937841, 'gamma': 2.219026577399652, 'min_child_weight': 0.02845312944239578, 'reg_alpha': 5.442034980303838e-07, 'reg_lambda': 4.6113588705425895e-06, 'booster': 'dart', 'tree_method': 'approx'}</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>-0.1224453558547935</v>
+        <v>-0.1387608636076493</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="J35" t="n">
-        <v>0.86802016849654</v>
+        <v>0.854827958469595</v>
       </c>
       <c r="K35" t="n">
-        <v>0.07416021073382978</v>
+        <v>0.07444489845617275</v>
       </c>
       <c r="L35" t="n">
-        <v>1.609094522751045</v>
+        <v>1.365353512391366</v>
       </c>
       <c r="M35" t="n">
-        <v>0.3209266676471702</v>
+        <v>0.1357742834079906</v>
       </c>
       <c r="N35" t="n">
-        <v>0.1224453558547935</v>
+        <v>0.1387608636076493</v>
       </c>
       <c r="O35" t="n">
-        <v>0.04393232651093854</v>
+        <v>0.04047869765083906</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>{'n_estimators': 118, 'max_depth': 12, 'learning_rate': 0.08471801418819976, 'subsample': 0.7190609389379257, 'colsample_bytree': 0.40921304830970556, 'colsample_bylevel': 0.40919616423534183, 'gamma': 0.5808361216819946, 'min_child_weight': 2.9154431891537547, 'reg_alpha': 0.002570603566117598, 'reg_lambda': 0.023585940584142682, 'booster': 'dart', 'tree_method': 'auto', 'random_state': 42, 'verbosity': 0}</t>
+          <t>{'n_estimators': 492, 'max_depth': 10, 'learning_rate': 0.018792250706998793, 'subsample': 0.5091829444648185, 'colsample_bytree': 0.7106582039062216, 'colsample_bylevel': 0.9442427267937841, 'gamma': 2.219026577399652, 'min_child_weight': 0.02845312944239578, 'reg_alpha': 5.442034980303838e-07, 'reg_lambda': 4.6113588705425895e-06, 'booster': 'dart', 'tree_method': 'approx', 'random_state': 42, 'verbosity': 0}</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-01-28_15-19</t>
+          <t>2026-01-29_10-25</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2589,7 +2589,7 @@
         <v>-0.1169153121727793</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
         <v>0.8696879552584514</v>
